--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\DSA-450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10711CBD-CA83-4813-85D6-F82AD9DC8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D203B-F4EA-462E-803E-501AA2566969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Strategy" sheetId="2" r:id="rId2"/>
-    <sheet name="Topic data" sheetId="3" r:id="rId3"/>
+    <sheet name="Topic data" sheetId="3" r:id="rId2"/>
+    <sheet name="Strategy" sheetId="2" r:id="rId3"/>
     <sheet name="GFG" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="381">
   <si>
     <t>Topic</t>
   </si>
@@ -787,21 +787,6 @@
     <t>Topic link</t>
   </si>
   <si>
-    <t>Num problems</t>
-  </si>
-  <si>
-    <t>Total Num problems</t>
-  </si>
-  <si>
-    <t>Explore section problems</t>
-  </si>
-  <si>
-    <t>Done problems</t>
-  </si>
-  <si>
-    <t>Explore section problems done</t>
-  </si>
-  <si>
     <t>https://leetcode.com/tag/array</t>
   </si>
   <si>
@@ -838,9 +823,6 @@
     <t>https://leetcode.com/tag/two-pointers</t>
   </si>
   <si>
-    <t xml:space="preserve">done </t>
-  </si>
-  <si>
     <t>Breadth-first Search</t>
   </si>
   <si>
@@ -865,9 +847,6 @@
     <t>https://leetcode.com/tag/greedy</t>
   </si>
   <si>
-    <t>done some</t>
-  </si>
-  <si>
     <t>Backtracking</t>
   </si>
   <si>
@@ -1160,6 +1139,33 @@
   </si>
   <si>
     <t>EXT</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-subarray-to-maximize-array-value/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/total-hamming-distance/description/</t>
+  </si>
+  <si>
+    <t>Min Heap</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-sequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-to-integer-atoi/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/substring-with-concatenation-of-all-words/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/roman-to-integer/</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1239,8 +1245,34 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,20 +1293,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1289,8 +1309,71 @@
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1298,12 +1381,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1313,24 +1414,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1642,10 +1766,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1666,22 +1790,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1694,8 +1818,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1709,7 +1833,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1722,8 +1846,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1737,7 +1861,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1751,7 +1875,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1762,7 +1886,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1772,8 +1896,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1786,8 +1910,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4335,40 +4459,189 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>378</v>
-      </c>
-      <c r="C197" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>378</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B199" t="s">
-        <v>375</v>
-      </c>
-      <c r="C199" s="17" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>371</v>
+      </c>
+      <c r="B200" t="s">
+        <v>370</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>371</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>371</v>
+      </c>
+      <c r="B202" t="s">
+        <v>278</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>371</v>
+      </c>
+      <c r="B203" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>371</v>
+      </c>
+      <c r="B204" t="s">
+        <v>216</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B205" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>371</v>
+      </c>
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B200" t="s">
-        <v>377</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>376</v>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>371</v>
+      </c>
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>371</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>371</v>
+      </c>
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4572,200 +4845,36 @@
     <hyperlink ref="C198" r:id="rId197" xr:uid="{8B94F20A-5D70-40D6-B221-8863CD1EA9CF}"/>
     <hyperlink ref="C199" r:id="rId198" xr:uid="{DA04C670-DACE-4BDD-84B0-74BBFD94F30F}"/>
     <hyperlink ref="C200" r:id="rId199" xr:uid="{E543F7F9-7DAB-4E38-8222-B3D6C2611E1F}"/>
+    <hyperlink ref="C201" r:id="rId200" xr:uid="{00326DC4-E196-4F38-964E-8B4DE15C5EA5}"/>
+    <hyperlink ref="C202" r:id="rId201" xr:uid="{7E245596-BA1D-4F94-99A5-E1E2F7EF8C29}"/>
+    <hyperlink ref="C203" r:id="rId202" xr:uid="{B1EAF558-FBF6-46BB-9B1D-B30C742AFB0A}"/>
+    <hyperlink ref="C204" r:id="rId203" xr:uid="{AA2D75C5-DFF9-45B3-BB6B-4B405B75A5CC}"/>
+    <hyperlink ref="C205" r:id="rId204" xr:uid="{9A22C5F8-AFBB-4CCD-AF80-2EDD095EDFF0}"/>
+    <hyperlink ref="C206" r:id="rId205" xr:uid="{4BD30E20-1AC1-4B0D-A091-63D81B40DF41}"/>
+    <hyperlink ref="C208" r:id="rId206" xr:uid="{12BEE8CE-9F35-4A95-8C16-3F48E0233153}"/>
+    <hyperlink ref="C207" r:id="rId207" xr:uid="{FAFFA78F-E410-4173-AAE4-15C92D29FD0C}"/>
+    <hyperlink ref="C209" r:id="rId208" xr:uid="{EC3B94C0-C895-408C-B2AE-B605222F8CC2}"/>
+    <hyperlink ref="C210" r:id="rId209" xr:uid="{DB21C7AE-011B-495B-8210-C67057E3B57C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId210"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B17" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B23" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B24" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="B26" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
@@ -4773,39 +4882,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="25" t="s">
         <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>258</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -4818,21 +4917,13 @@
         <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F24" si="0">INT(C2/10)</f>
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>173</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4845,18 +4936,14 @@
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
@@ -4866,19 +4953,15 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>262</v>
+      <c r="B5" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="C5" s="2">
         <v>49</v>
@@ -4887,18 +4970,14 @@
         <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2">
@@ -4908,19 +4987,15 @@
         <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>265</v>
+      <c r="B7" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="2">
         <v>42</v>
@@ -4929,18 +5004,14 @@
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2">
@@ -4950,127 +5021,101 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="9">
         <v>35</v>
       </c>
       <c r="D9" s="2">
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="10">
         <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="10">
         <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>277</v>
+      <c r="B14" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="C14" s="1">
         <v>18</v>
@@ -5079,18 +5124,14 @@
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1">
@@ -5100,22 +5141,16 @@
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>281</v>
+      <c r="B16" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -5124,18 +5159,14 @@
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1">
@@ -5145,18 +5176,14 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="1">
@@ -5166,19 +5193,15 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>285</v>
+      <c r="B19" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="C19" s="1">
         <v>12</v>
@@ -5187,18 +5210,14 @@
         <v>10</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="24" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="1">
@@ -5208,19 +5227,15 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>288</v>
+      <c r="B21" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="C21" s="1">
         <v>8</v>
@@ -5229,18 +5244,14 @@
         <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="1">
@@ -5250,19 +5261,15 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>291</v>
+      <c r="B23" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -5271,19 +5278,15 @@
         <v>5</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>293</v>
+      <c r="B24" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -5292,11 +5295,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5329,6 +5328,183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B18" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B23" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B24" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B26" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
@@ -5336,7 +5512,7 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5353,25 +5529,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5382,227 +5558,227 @@
         <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="15" t="s">
+      <c r="E7" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="15" t="s">
+      <c r="E8" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="15" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="15" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="15" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="15" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="15" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="15" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
@@ -5610,12 +5786,12 @@
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5623,40 +5799,40 @@
         <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -5664,27 +5840,27 @@
         <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C33" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -5692,75 +5868,75 @@
         <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -5768,23 +5944,23 @@
         <v>62</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -5816,30 +5992,30 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -5847,15 +6023,15 @@
         <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -5865,27 +6041,27 @@
     </row>
     <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C67" s="16" t="s">
-        <v>369</v>
+      <c r="C67" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -5893,7 +6069,7 @@
         <v>47</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30D203B-F4EA-462E-803E-501AA2566969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E47CE5-6D71-48B6-8A72-1DA37CBA00CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="383">
   <si>
     <t>Topic</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/roman-to-integer/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/description/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
   </si>
 </sst>
 </file>
@@ -1766,16 +1772,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1832,8 +1838,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1860,8 +1866,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1874,8 +1880,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1884,9 +1890,12 @@
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4637,10 +4646,35 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
       <c r="C210" s="15" t="s">
         <v>379</v>
       </c>
       <c r="D210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>382</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4855,9 +4889,11 @@
     <hyperlink ref="C207" r:id="rId207" xr:uid="{FAFFA78F-E410-4173-AAE4-15C92D29FD0C}"/>
     <hyperlink ref="C209" r:id="rId208" xr:uid="{EC3B94C0-C895-408C-B2AE-B605222F8CC2}"/>
     <hyperlink ref="C210" r:id="rId209" xr:uid="{DB21C7AE-011B-495B-8210-C67057E3B57C}"/>
+    <hyperlink ref="C211" r:id="rId210" xr:uid="{09442886-AD02-4C87-B48E-C01BCACB79C9}"/>
+    <hyperlink ref="C212" r:id="rId211" xr:uid="{CEF78976-D7DA-45AF-B99E-778A7CB190D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId210"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId212"/>
 </worksheet>
 </file>
 

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E47CE5-6D71-48B6-8A72-1DA37CBA00CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA46910-E4D4-42CF-9F5C-7F906EB47F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,7 +1278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,18 +1289,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1319,48 +1307,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1406,11 +1352,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1419,32 +1365,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1761,7 +1699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1775,7 +1713,7 @@
   <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1796,22 +1734,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1825,7 +1763,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1839,7 +1777,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1853,7 +1791,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1867,7 +1805,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1881,7 +1819,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1895,7 +1833,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1906,7 +1844,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1920,7 +1858,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1933,8 +1871,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1947,8 +1885,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4473,7 +4411,7 @@
       <c r="B197" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C197" s="15" t="s">
+      <c r="C197" s="13" t="s">
         <v>365</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -4487,7 +4425,7 @@
       <c r="B198" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C198" s="15" t="s">
+      <c r="C198" s="13" t="s">
         <v>366</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -4501,7 +4439,7 @@
       <c r="B199" t="s">
         <v>368</v>
       </c>
-      <c r="C199" s="15" t="s">
+      <c r="C199" s="13" t="s">
         <v>367</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -4515,7 +4453,7 @@
       <c r="B200" t="s">
         <v>370</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" s="13" t="s">
         <v>369</v>
       </c>
       <c r="D200" t="s">
@@ -4529,7 +4467,7 @@
       <c r="B201" t="s">
         <v>3</v>
       </c>
-      <c r="C201" s="15" t="s">
+      <c r="C201" s="13" t="s">
         <v>372</v>
       </c>
       <c r="D201" t="s">
@@ -4543,7 +4481,7 @@
       <c r="B202" t="s">
         <v>278</v>
       </c>
-      <c r="C202" s="15" t="s">
+      <c r="C202" s="13" t="s">
         <v>373</v>
       </c>
       <c r="D202" t="s">
@@ -4557,7 +4495,7 @@
       <c r="B203" t="s">
         <v>216</v>
       </c>
-      <c r="C203" s="15" t="s">
+      <c r="C203" s="13" t="s">
         <v>376</v>
       </c>
       <c r="D203" t="s">
@@ -4571,21 +4509,21 @@
       <c r="B204" t="s">
         <v>216</v>
       </c>
-      <c r="C204" s="15" t="s">
+      <c r="C204" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
+    <row r="205" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B205" s="17" t="s">
+      <c r="B205" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C205" s="29" t="s">
+      <c r="C205" s="19" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4596,7 +4534,7 @@
       <c r="B206" t="s">
         <v>18</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C206" s="13" t="s">
         <v>378</v>
       </c>
       <c r="D206" t="s">
@@ -4610,7 +4548,7 @@
       <c r="B207" t="s">
         <v>18</v>
       </c>
-      <c r="C207" s="15" t="s">
+      <c r="C207" s="13" t="s">
         <v>379</v>
       </c>
       <c r="D207" t="s">
@@ -4624,7 +4562,7 @@
       <c r="B208" t="s">
         <v>18</v>
       </c>
-      <c r="C208" s="15" t="s">
+      <c r="C208" s="13" t="s">
         <v>61</v>
       </c>
       <c r="D208" t="s">
@@ -4638,7 +4576,7 @@
       <c r="B209" t="s">
         <v>18</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C209" s="13" t="s">
         <v>380</v>
       </c>
       <c r="D209" t="s">
@@ -4649,7 +4587,7 @@
       <c r="B210" t="s">
         <v>18</v>
       </c>
-      <c r="C210" s="15" t="s">
+      <c r="C210" s="13" t="s">
         <v>379</v>
       </c>
       <c r="D210" t="s">
@@ -4660,7 +4598,7 @@
       <c r="B211" t="s">
         <v>382</v>
       </c>
-      <c r="C211" s="15" t="s">
+      <c r="C211" s="13" t="s">
         <v>381</v>
       </c>
       <c r="D211" t="s">
@@ -4671,7 +4609,7 @@
       <c r="B212" t="s">
         <v>216</v>
       </c>
-      <c r="C212" s="15" t="s">
+      <c r="C212" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D212" t="s">
@@ -4905,12 +4843,12 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
@@ -4918,16 +4856,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="16" t="s">
         <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4939,11 +4877,11 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
@@ -4958,11 +4896,11 @@
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="17" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="2">
@@ -4975,11 +4913,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
@@ -4992,11 +4930,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>257</v>
       </c>
       <c r="C5" s="2">
@@ -5009,11 +4947,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2">
@@ -5026,11 +4964,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>260</v>
       </c>
       <c r="C7" s="2">
@@ -5044,10 +4982,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2">
@@ -5060,14 +4998,14 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>35</v>
       </c>
       <c r="D9" s="2">
@@ -5077,14 +5015,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>33</v>
       </c>
       <c r="D10" s="1">
@@ -5095,14 +5033,14 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>23</v>
       </c>
       <c r="D11" s="1">
@@ -5113,13 +5051,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>21</v>
       </c>
       <c r="D12" s="2">
@@ -5130,13 +5068,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>21</v>
       </c>
       <c r="D13" s="1">
@@ -5146,11 +5084,11 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>271</v>
       </c>
       <c r="C14" s="1">
@@ -5163,11 +5101,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1">
@@ -5181,11 +5119,11 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="20" t="s">
         <v>274</v>
       </c>
       <c r="C16" s="1">
@@ -5198,11 +5136,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1">
@@ -5215,11 +5153,11 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="1">
@@ -5232,11 +5170,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>278</v>
       </c>
       <c r="C19" s="1">
@@ -5249,11 +5187,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="1">
@@ -5266,11 +5204,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>281</v>
       </c>
       <c r="C21" s="1">
@@ -5283,11 +5221,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="1">
@@ -5300,11 +5238,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="1">
@@ -5318,10 +5256,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" t="s">
         <v>286</v>
       </c>
       <c r="C24" s="1">
@@ -5548,7 +5486,7 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5596,13 +5534,13 @@
       <c r="C2" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>296</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5610,7 +5548,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>297</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -5618,7 +5556,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>299</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -5626,7 +5564,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>301</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -5634,7 +5572,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>302</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -5642,7 +5580,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>303</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -5653,10 +5591,10 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1" t="s">
         <v>298</v>
       </c>
@@ -5665,10 +5603,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>298</v>
       </c>
@@ -5677,10 +5615,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>298</v>
       </c>
@@ -5689,10 +5627,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1" t="s">
         <v>298</v>
       </c>
@@ -5701,10 +5639,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
         <v>298</v>
       </c>
@@ -5713,10 +5651,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>298</v>
       </c>
@@ -5725,10 +5663,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
         <v>298</v>
       </c>
@@ -5737,10 +5675,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1" t="s">
         <v>298</v>
       </c>
@@ -5749,10 +5687,10 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
         <v>298</v>
       </c>
@@ -5761,10 +5699,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
         <v>298</v>
       </c>
@@ -5773,10 +5711,10 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1" t="s">
         <v>298</v>
       </c>
@@ -5785,10 +5723,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
         <v>298</v>
       </c>
@@ -5797,10 +5735,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1" t="s">
         <v>298</v>
       </c>
@@ -5809,10 +5747,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1" t="s">
         <v>298</v>
       </c>
@@ -6091,7 +6029,7 @@
       </c>
     </row>
     <row r="67" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>362</v>
       </c>
     </row>

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA46910-E4D4-42CF-9F5C-7F906EB47F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA2F2FF-92C7-47EB-B6A7-8F93A50023FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1382,7 +1382,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1712,8 +1711,8 @@
   </sheetPr>
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1858,7 +1857,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1934,15 +1933,15 @@
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1969,14 +1968,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2025,8 +2024,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA2F2FF-92C7-47EB-B6A7-8F93A50023FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF7EB1-DEEA-47DC-A38A-DF5EF6FDF02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -1711,8 +1711,8 @@
   </sheetPr>
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1899,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1912,8 +1912,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1926,8 +1926,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1954,8 +1954,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1982,36 +1982,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DF7EB1-DEEA-47DC-A38A-DF5EF6FDF02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838CA39-9DD2-46DA-9BA2-3C80DE8FB5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5310" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="384">
   <si>
     <t>Topic</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sudoku-solver/description/</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1712,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1898,8 +1901,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2038,8 +2041,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4613,6 +4616,14 @@
       </c>
       <c r="D212" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C213" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4828,9 +4839,10 @@
     <hyperlink ref="C210" r:id="rId209" xr:uid="{DB21C7AE-011B-495B-8210-C67057E3B57C}"/>
     <hyperlink ref="C211" r:id="rId210" xr:uid="{09442886-AD02-4C87-B48E-C01BCACB79C9}"/>
     <hyperlink ref="C212" r:id="rId211" xr:uid="{CEF78976-D7DA-45AF-B99E-778A7CB190D8}"/>
+    <hyperlink ref="C213" r:id="rId212" xr:uid="{31D6ABB0-C33F-4083-A06A-2F0C6DEB26D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId212"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId213"/>
 </worksheet>
 </file>
 

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838CA39-9DD2-46DA-9BA2-3C80DE8FB5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F50CC6F-8AFC-492D-8340-239F6E7A395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5310" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1280,8 +1280,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,6 +1334,11 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1352,14 +1364,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1385,8 +1398,10 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
@@ -1715,7 +1730,7 @@
   <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1917,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2055,8 +2070,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2066,8 +2081,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2080,8 +2095,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2094,8 +2109,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2108,8 +2123,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2133,8 +2148,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2144,8 +2159,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F50CC6F-8AFC-492D-8340-239F6E7A395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40C66E-0785-4CCC-B6EC-27270876488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5310" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1729,8 +1729,8 @@
   </sheetPr>
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2137,8 +2137,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">

--- a/Leetcode Questions - 200.xlsx
+++ b/Leetcode Questions - 200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\LC-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40C66E-0785-4CCC-B6EC-27270876488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2ACD3E-62B9-4EFE-8D46-B0B9F7EF013F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="3375" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -1184,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1340,7 +1340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1363,6 +1363,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1372,7 +1387,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1399,6 +1414,8 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -1716,7 +1733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1729,17 +1746,17 @@
   </sheetPr>
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1751,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1765,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1779,7 +1796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -1807,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -1821,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1835,7 +1852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -1849,7 +1866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -1860,7 +1877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -1874,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -1888,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -1902,7 +1919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -1916,7 +1933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -1930,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -1944,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -1972,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -1986,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -2000,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -2014,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -2028,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -2042,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -2056,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -2081,7 +2098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -2095,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -2109,7 +2126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -2123,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -2137,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="23">
         <v>30</v>
       </c>
@@ -2159,7 +2176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="23">
         <v>31</v>
       </c>
@@ -2173,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="12.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2187,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="12.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="12.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2215,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="12.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2226,7 +2243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="12.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2240,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="12.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="12.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2268,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="12.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2282,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="12.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2296,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="12.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2310,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="12.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2324,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="12.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2338,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="12.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2352,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="12.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2363,7 +2380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="12.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2374,7 +2391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="12.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2388,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="12.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2402,7 +2419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="12.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2413,7 +2430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="12.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2424,7 +2441,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2438,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="12.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2452,7 +2469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="12.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2466,7 +2483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="12.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2477,7 +2494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="12.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2488,7 +2505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="12.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2502,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="12.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2516,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="12.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2530,7 +2547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="12.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2544,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="12.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2558,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="12.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2572,7 +2589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="12.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2586,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="12.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2600,7 +2617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2614,7 +2631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="12.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="12.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="12.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2656,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="12.75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2670,7 +2687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="12.75">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="12.75">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2698,7 +2715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="12.75">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2712,7 +2729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="12.75">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2726,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="12.75">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="12.75">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2754,7 +2771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="12.75">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2768,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="12.75">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2782,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="12.75">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2796,7 +2813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="12.75">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2810,7 +2827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="12.75">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2824,7 +2841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="12.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2838,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="12.75">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2852,7 +2869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="12.75">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2866,7 +2883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="12.75">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="12.75">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="12.75">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="12.75">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="12.75">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2936,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="12.75">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2950,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="12.75">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2964,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="12.75">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2978,7 +2995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="12.75">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="12.75">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3006,7 +3023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="12.75">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3020,7 +3037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="12.75">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3034,7 +3051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="12.75">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="12.75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3062,7 +3079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="12.75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3076,7 +3093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="12.75">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3090,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="12.75">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="12.75">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3118,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="12.75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3132,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="12.75">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3146,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="12.75">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3160,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="12.75">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3174,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="12.75">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="12.75">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3202,7 +3219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="12.75">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3216,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="12.75">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="12.75">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3241,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="12.75">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3255,7 +3272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="12.75">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3269,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="12.75">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3283,7 +3300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="12.75">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3297,7 +3314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="12.75">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="12.75">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3325,7 +3342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="12.75">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3339,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="12.75">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="12.75">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="12.75">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3381,7 +3398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="12.75">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3395,7 +3412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="12.75">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="12.75">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3423,7 +3440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="12.75">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="12.75">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="12.75">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="12.75">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3479,7 +3496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="12.75">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3493,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="12.75">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3507,7 +3524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="12.75">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="12.75">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3535,7 +3552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="12.75">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3549,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="12.75">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3563,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="12.75">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3577,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="12.75">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3591,7 +3608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="12.75">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3619,7 +3636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3633,7 +3650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3647,7 +3664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3661,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3675,7 +3692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3714,7 +3731,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="12.75">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="12.75">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="12.75">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3753,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="12.75">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3767,7 +3784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="12.75">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3781,7 +3798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="12.75">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3795,7 +3812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="12.75">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3809,7 +3826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="12.75">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3823,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="12.75">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="12.75">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -3851,7 +3868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="12.75">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3865,7 +3882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="12.75">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3879,7 +3896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="12.75">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3893,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="12.75">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3907,7 +3924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="12.75">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3921,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="12.75">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3935,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="12.75">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3949,7 +3966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="12.75">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3963,7 +3980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="12.75">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3977,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="12.75">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="12.75">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4005,7 +4022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="12.75">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4016,7 +4033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="12.75">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4030,7 +4047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="12.75">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4044,7 +4061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="12.75">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4058,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="12.75">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="12.75">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4086,7 +4103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="12.75">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4100,7 +4117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="12.75">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4114,7 +4131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="12.75">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4128,7 +4145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="12.75">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4142,7 +4159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="12.75">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4156,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="12.75">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="12.75">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4184,7 +4201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="12.75">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4195,7 +4212,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="12.75">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4209,7 +4226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="12.75">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4223,7 +4240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="12.75">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4237,7 +4254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="12.75">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4251,7 +4268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="12.75">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4262,7 +4279,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="12.75">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4273,7 +4290,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="12.75">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4287,7 +4304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="12.75">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4301,7 +4318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="12.75">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4315,7 +4332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="12.75">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4329,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="12.75">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4343,7 +4360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="12.75">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="12.75">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4371,7 +4388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="12.75">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4385,7 +4402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="12.75">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4399,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="12.75">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4410,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="12.75">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4421,7 +4438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -4435,7 +4452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1">
       <c r="A198" t="s">
         <v>371</v>
       </c>
@@ -4449,7 +4466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1">
       <c r="A199" t="s">
         <v>371</v>
       </c>
@@ -4463,7 +4480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1">
       <c r="A200" t="s">
         <v>371</v>
       </c>
@@ -4477,7 +4494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1">
       <c r="A201" t="s">
         <v>371</v>
       </c>
@@ -4491,7 +4508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1">
       <c r="A202" t="s">
         <v>371</v>
       </c>
@@ -4505,7 +4522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1">
       <c r="A203" t="s">
         <v>371</v>
       </c>
@@ -4519,7 +4536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1">
       <c r="A204" t="s">
         <v>371</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A205" s="17" t="s">
         <v>371</v>
       </c>
@@ -4544,7 +4561,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1">
       <c r="A206" t="s">
         <v>371</v>
       </c>
@@ -4558,7 +4575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1">
       <c r="A207" t="s">
         <v>371</v>
       </c>
@@ -4572,7 +4589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1">
       <c r="A208" t="s">
         <v>371</v>
       </c>
@@ -4586,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1">
       <c r="A209" t="s">
         <v>371</v>
       </c>
@@ -4600,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1">
       <c r="B210" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1">
       <c r="B211" t="s">
         <v>382</v>
       </c>
@@ -4622,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="15.75" customHeight="1">
       <c r="B212" t="s">
         <v>216</v>
       </c>
@@ -4633,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="15.75" customHeight="1">
       <c r="C213" s="13" t="s">
         <v>383</v>
       </c>
@@ -4868,11 +4885,11 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -4881,7 +4898,7 @@
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>249</v>
       </c>
@@ -4903,7 +4920,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -4922,7 +4939,7 @@
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -4939,7 +4956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -4956,7 +4973,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -4973,11 +4990,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="2">
@@ -4990,11 +5007,11 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>260</v>
       </c>
       <c r="C7" s="2">
@@ -5007,11 +5024,11 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="2">
@@ -5024,7 +5041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5041,7 +5058,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5059,11 +5076,11 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>266</v>
       </c>
       <c r="C11" s="9">
@@ -5076,11 +5093,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C12" s="9">
@@ -5093,11 +5110,11 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>269</v>
       </c>
       <c r="C13" s="9">
@@ -5110,7 +5127,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5127,11 +5144,11 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="1">
@@ -5145,11 +5162,11 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" t="s">
         <v>274</v>
       </c>
       <c r="C16" s="1">
@@ -5162,11 +5179,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1">
@@ -5179,7 +5196,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5196,11 +5213,11 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>278</v>
       </c>
       <c r="C19" s="1">
@@ -5213,11 +5230,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" t="s">
         <v>174</v>
       </c>
       <c r="C20" s="1">
@@ -5230,11 +5247,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>281</v>
       </c>
       <c r="C21" s="1">
@@ -5247,11 +5264,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="1">
@@ -5264,7 +5281,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -5281,11 +5298,11 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C24" s="1">
@@ -5337,9 +5354,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -5347,27 +5364,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -5375,67 +5392,67 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="B12" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="B14" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="B15" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>240</v>
@@ -5443,7 +5460,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>241</v>
@@ -5451,7 +5468,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>242</v>
@@ -5459,17 +5476,17 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75">
       <c r="B26" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75">
       <c r="B27" s="3" t="s">
         <v>245</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75">
       <c r="A28" s="1" t="s">
         <v>247</v>
       </c>
@@ -5514,13 +5531,13 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5550,7 +5567,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5565,7 +5582,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="C3" s="11" t="s">
         <v>296</v>
       </c>
@@ -5573,7 +5590,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="C4" s="11" t="s">
         <v>297</v>
       </c>
@@ -5581,7 +5598,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="C5" s="11" t="s">
         <v>299</v>
       </c>
@@ -5589,7 +5606,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="C6" s="11" t="s">
         <v>301</v>
       </c>
@@ -5597,7 +5614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="C7" s="11" t="s">
         <v>302</v>
       </c>
@@ -5605,7 +5622,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="C8" s="11" t="s">
         <v>303</v>
       </c>
@@ -5613,7 +5630,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5628,7 +5645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="C10" s="11" t="s">
         <v>306</v>
       </c>
@@ -5640,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="C11" s="11" t="s">
         <v>307</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="C12" s="11" t="s">
         <v>308</v>
       </c>
@@ -5664,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="C13" s="11" t="s">
         <v>309</v>
       </c>
@@ -5676,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="C14" s="11" t="s">
         <v>310</v>
       </c>
@@ -5688,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="C15" s="11" t="s">
         <v>311</v>
       </c>
@@ -5700,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="C16" s="11" t="s">
         <v>312</v>
       </c>
@@ -5712,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1">
       <c r="C17" s="11" t="s">
         <v>313</v>
       </c>
@@ -5724,7 +5741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
       <c r="C18" s="11" t="s">
         <v>314</v>
       </c>
@@ -5736,7 +5753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1">
       <c r="C19" s="11" t="s">
         <v>315</v>
       </c>
@@ -5748,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
       <c r="C20" s="11" t="s">
         <v>316</v>
       </c>
@@ -5760,7 +5777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1">
       <c r="C21" s="11" t="s">
         <v>317</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1">
       <c r="C22" s="11" t="s">
         <v>318</v>
       </c>
@@ -5784,17 +5801,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1">
       <c r="C23" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="12.75">
       <c r="C24" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="12.75">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -5802,32 +5819,32 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="12.75">
       <c r="C26" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="12.75">
       <c r="C27" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="12.75">
       <c r="C28" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="12.75">
       <c r="C29" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="12.75">
       <c r="C30" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="12.75">
       <c r="C31" s="3" t="s">
         <v>327</v>
       </c>
@@ -5835,7 +5852,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="12.75">
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
@@ -5843,27 +5860,27 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="12.75">
       <c r="C33" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="12.75">
       <c r="C35" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="12.75">
       <c r="C36" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="12.75">
       <c r="C37" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="12.75">
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
@@ -5871,17 +5888,17 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="12.75">
       <c r="C39" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="12.75">
       <c r="C40" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" ht="12.75">
       <c r="C41" s="3" t="s">
         <v>337</v>
       </c>
@@ -5889,7 +5906,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="12.75">
       <c r="C42" s="3" t="s">
         <v>339</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" ht="12.75">
       <c r="C43" s="3" t="s">
         <v>341</v>
       </c>
@@ -5905,7 +5922,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="12.75">
       <c r="C44" s="3" t="s">
         <v>342</v>
       </c>
@@ -5913,7 +5930,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" ht="12.75">
       <c r="B45" s="1" t="s">
         <v>274</v>
       </c>
@@ -5921,17 +5938,17 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" ht="12.75">
       <c r="C46" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" ht="12.75">
       <c r="C47" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" ht="12.75">
       <c r="C48" s="3" t="s">
         <v>346</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="12.75">
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
@@ -5947,12 +5964,12 @@
         <v>348</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" ht="12.75">
       <c r="C50" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" ht="12.75">
       <c r="B51" s="1" t="s">
         <v>350</v>
       </c>
@@ -5963,7 +5980,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" ht="12.75">
       <c r="B52" s="6"/>
       <c r="C52" s="7" t="s">
         <v>240</v>
@@ -5971,7 +5988,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" ht="12.75">
       <c r="B53" s="6"/>
       <c r="C53" s="7" t="s">
         <v>241</v>
@@ -5979,7 +5996,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" ht="12.75">
       <c r="B54" s="6"/>
       <c r="C54" s="7" t="s">
         <v>242</v>
@@ -5987,7 +6004,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="56" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" ht="12.75">
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
@@ -5995,12 +6012,12 @@
         <v>353</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" ht="12.75">
       <c r="C57" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" ht="12.75">
       <c r="B58" s="1" t="s">
         <v>269</v>
       </c>
@@ -6008,17 +6025,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" ht="12.75">
       <c r="C59" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:5" ht="12.75">
       <c r="C60" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:5" ht="12.75">
       <c r="B61" s="1" t="s">
         <v>199</v>
       </c>
@@ -6026,7 +6043,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:5" ht="12.75">
       <c r="B62" s="1" t="s">
         <v>286</v>
       </c>
@@ -6034,37 +6051,37 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:5" ht="12.75">
       <c r="B63" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:5" ht="12.75">
       <c r="C64" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" ht="12.75">
       <c r="C65" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" ht="12.75">
       <c r="C66" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" ht="12.75">
       <c r="C67" s="12" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" ht="12.75">
       <c r="C68" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" ht="12.75">
       <c r="B69" s="1" t="s">
         <v>47</v>
       </c>
